--- a/biology/Histoire de la zoologie et de la botanique/Liste_d'espèces_végétales_et_animales_nommées_en_référence_à_Théodore_Monod/Liste_d'espèces_végétales_et_animales_nommées_en_référence_à_Théodore_Monod.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Liste_d'espèces_végétales_et_animales_nommées_en_référence_à_Théodore_Monod/Liste_d'espèces_végétales_et_animales_nommées_en_référence_à_Théodore_Monod.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_v%C3%A9g%C3%A9tales_et_animales_nomm%C3%A9es_en_r%C3%A9f%C3%A9rence_%C3%A0_Th%C3%A9odore_Monod</t>
+          <t>Liste_d'espèces_végétales_et_animales_nommées_en_référence_à_Théodore_Monod</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Théodore Monod ramena de ses différentes expéditions une quantité énorme d'échantillons qu'il n'eut pas le temps de décrire en totalité. Il en offrit une grande quantité au Muséum national d'histoire naturelle. Ces échantillons, analysés par la suite, furent souvent l'origine d'une description d'une nouvelle espèce. Elles furent souvent nommées en son honneur : « monodi », « monodii », « monodiana », « monodianum »...
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_v%C3%A9g%C3%A9tales_et_animales_nomm%C3%A9es_en_r%C3%A9f%C3%A9rence_%C3%A0_Th%C3%A9odore_Monod</t>
+          <t>Liste_d'espèces_végétales_et_animales_nommées_en_référence_à_Théodore_Monod</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Végétaux
-Formations végétales
-Chudealium monodi (et ssp. Monodi) Roberty 1946
+          <t>Formations végétales</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Chudealium monodi (et ssp. Monodi) Roberty 1946
 Aserosphaeroides monodii Boureau 1976
 Cocconeis monodii Amossé 1970</t>
         </is>
@@ -527,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_v%C3%A9g%C3%A9tales_et_animales_nomm%C3%A9es_en_r%C3%A9f%C3%A9rence_%C3%A0_Th%C3%A9odore_Monod</t>
+          <t>Liste_d'espèces_végétales_et_animales_nommées_en_référence_à_Théodore_Monod</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +561,9 @@
           <t>Faune</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Oiseaux
 Ammomanes deserti monodi Villiers 1950
